--- a/output/raw_data/bond_volumn_summary.xlsx
+++ b/output/raw_data/bond_volumn_summary.xlsx
@@ -432,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5764830.4</v>
+        <v>8193002.93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -448,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>51986304.08</v>
+        <v>69049465.17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -472,7 +472,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>381823.65</v>
+        <v>326218.31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -480,7 +480,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>89252963.94</v>
+        <v>96163651.88</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -488,7 +488,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>285334169.31</v>
+        <v>332077137.17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -496,7 +496,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>3881576.12</v>
+        <v>4740375.97</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -504,7 +504,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>67428144.14</v>
+        <v>77986838.52</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -512,7 +512,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>36805.61</v>
+        <v>420558.64</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -520,7 +520,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>66601721.38</v>
+        <v>75197025.81999999</v>
       </c>
     </row>
   </sheetData>
